--- a/inst/examples/ceq_example_simple/data-app/simple-inputs-structure.xlsx
+++ b/inst/examples/ceq_example_simple/data-app/simple-inputs-structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb532966\eb-local\devCEQ\inst\examples\ceq_example_simple\data-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955D0B53-D5BA-458E-BD36-AB9A0A9823AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D234DE7-1B17-4175-9A0B-C1978DACFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DFCB416-EF9B-48BC-9D9B-845A907FD12A}"/>
   </bookViews>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduard Bukin:</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Numbers must be unique for each groups of inputs. 
@@ -103,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduard Bukin:</t>
         </r>
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This orders parameters in each group. Incremental numbers must be supplied for each parameter in the group. </t>
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduard Bukin:</t>
         </r>
@@ -136,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -187,9 +187,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">These parameter of parameters are then passed as "global" variables inside the microsimulation functions. </t>
+          <t xml:space="preserve">These parameters are then passed as "global" variables inside the microsimulation functions. </t>
         </r>
       </text>
     </comment>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>group_name</t>
   </si>
@@ -572,13 +572,25 @@
   </si>
   <si>
     <t>VAT rate, %___6</t>
+  </si>
+  <si>
+    <t>checkbox_2</t>
+  </si>
+  <si>
+    <t>list(label = NULL, extra = "Nameless check box")</t>
+  </si>
+  <si>
+    <t>list(label = NULL, extra = "Nameless numeric input")</t>
+  </si>
+  <si>
+    <t>num_nameless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,19 +616,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -682,7 +681,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -744,6 +833,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="inputs"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="tabs"/>
       <sheetName val="table_066"/>
       <sheetName val="table_065"/>
@@ -920,39 +1010,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
             <v>10</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1255,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC5E539-1D4A-4619-8AEB-14C54FB03D9B}">
-  <dimension ref="A1:Q580"/>
+  <dimension ref="A1:Q582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1511,7 @@
         <v>0.01</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O69" si="0">IF(""=H3,"",H3*N3)</f>
+        <f t="shared" ref="O3:O71" si="0">IF(""=H3,"",H3*N3)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -2238,34 +2329,28 @@
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:O30" si="1">IF(""=H25,"",H25*N25)</f>
+        <f t="shared" ref="O25:O32" si="1">IF(""=H25,"",H25*N25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
       <c r="C26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H26" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -2279,146 +2364,152 @@
       <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" ref="O26" si="2">IF(""=H26,"",H26*N26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="2">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" ref="O27" si="3">IF(""=H27,"",H27*N27)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="2">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2">
         <v>0.01</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O28" s="2">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>10</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N29" s="2">
         <v>0.01</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O29" s="2">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="2">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2">
         <v>12</v>
@@ -2448,16 +2539,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2474,11 +2565,11 @@
       <c r="M31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="1">
-        <v>1</v>
+      <c r="N31" s="2">
+        <v>0.01</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" ref="O31:O35" si="2">IF(""=H31,"",H31*N31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2487,19 +2578,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -2513,12 +2604,12 @@
       <c r="M32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
+      <c r="N32" s="2">
+        <v>0.01</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
@@ -2526,16 +2617,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2556,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O33:O37" si="4">IF(""=H33,"",H33*N33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2565,19 +2656,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -2595,8 +2686,8 @@
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -2604,16 +2695,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2634,24 +2725,90 @@
         <v>1</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="Q36" s="2"/>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="O39" s="2" t="str">
@@ -2841,3081 +2998,3100 @@
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O70" s="2" t="str">
-        <f t="shared" ref="O70:O133" si="3">IF(""=H70,"",H70*N70)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O72:O135" si="5">IF(""=H72,"",H72*N72)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O86" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O89" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O90" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O91" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O92" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O93" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O94" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O95" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O96" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O97" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O98" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O99" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O100" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O101" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O102" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O103" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O104" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O105" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O106" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O107" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O108" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O109" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O110" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O111" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O112" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O113" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O114" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O115" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O116" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O117" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O118" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O119" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O120" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O121" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O122" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O123" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O124" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O125" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O126" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O127" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O128" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" s="2" t="str">
-        <f t="shared" ref="O134:O197" si="4">IF(""=H134,"",H134*N134)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O135" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O136:O199" si="6">IF(""=H136,"",H136*N136)</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O138" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O141" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O145" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O146" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O147" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O148" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O149" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O150" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O151" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O152" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O153" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O154" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O155" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O156" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O157" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O158" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O159" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O160" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O161" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O162" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O163" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O164" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O165" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O166" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O167" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O168" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O169" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O170" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O171" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O172" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O173" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O174" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O175" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O176" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O177" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O178" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O179" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O180" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O181" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O182" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O183" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O184" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O185" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O186" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O187" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O188" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O189" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O190" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O191" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O192" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O193" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O194" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O195" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O196" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O197" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O198" s="2" t="str">
-        <f t="shared" ref="O198:O261" si="5">IF(""=H198,"",H198*N198)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O199" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O200" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O200:O263" si="7">IF(""=H200,"",H200*N200)</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O201" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O202" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O203" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O204" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O205" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O206" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O207" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O208" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O209" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O210" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O211" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O212" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O213" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O214" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O215" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O216" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O217" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O218" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O219" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O220" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O221" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O222" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O223" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O224" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O225" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O226" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O227" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O228" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O229" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O230" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O231" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O232" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O233" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O234" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O235" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O236" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O237" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O238" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O239" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O240" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O241" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O242" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O243" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O244" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O245" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O246" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O247" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O248" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O249" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O250" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O251" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O252" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O253" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O254" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O255" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O256" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O257" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O258" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O259" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O260" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O261" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O262" s="2" t="str">
-        <f t="shared" ref="O262:O325" si="6">IF(""=H262,"",H262*N262)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O263" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O264" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O264:O327" si="8">IF(""=H264,"",H264*N264)</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O265" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O266" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O267" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O268" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O269" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O270" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O271" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O272" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O273" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O274" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O275" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O276" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O277" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O278" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O279" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O280" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O281" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O282" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O283" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O284" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O285" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O286" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O287" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O288" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O289" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O290" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O291" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O292" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O293" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O294" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O295" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O296" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O297" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O298" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O299" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O300" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O301" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O302" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O303" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O304" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O305" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O306" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O307" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O308" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O309" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O310" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O311" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O312" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O313" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O314" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O315" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O316" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O317" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O318" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O319" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O320" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O321" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O322" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O323" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O324" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O325" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O326" s="2" t="str">
-        <f t="shared" ref="O326:O389" si="7">IF(""=H326,"",H326*N326)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O327" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O328" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O328:O391" si="9">IF(""=H328,"",H328*N328)</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O329" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O330" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O331" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O332" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O333" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O334" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O335" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O336" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O337" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O338" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O339" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O340" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O341" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O342" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O343" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O344" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O345" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O346" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O347" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O348" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O349" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O350" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O351" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O352" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O353" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O354" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O355" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O356" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O357" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O358" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O359" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O360" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O361" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O362" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O363" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O364" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O365" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O366" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O367" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O368" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O369" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O370" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O371" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O372" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O373" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O374" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O375" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O376" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O377" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O378" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O379" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O380" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O381" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O382" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O383" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O384" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O385" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O386" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O387" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O388" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O389" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O390" s="2" t="str">
-        <f t="shared" ref="O390:O453" si="8">IF(""=H390,"",H390*N390)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O391" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O392" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O392:O455" si="10">IF(""=H392,"",H392*N392)</f>
         <v/>
       </c>
     </row>
     <row r="393" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O393" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O394" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O395" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O396" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O397" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O398" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O399" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O400" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O401" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O402" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O403" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O404" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O405" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O406" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O407" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O408" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O409" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O410" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O411" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O412" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O413" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O414" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O415" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O416" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O417" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O418" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O419" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O420" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O421" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O422" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O423" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O424" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O425" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O426" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O427" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O428" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O429" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O430" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O431" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O432" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O433" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O434" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O435" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O436" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O437" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O438" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O439" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O440" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O441" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O442" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O443" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O444" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O445" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O446" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O447" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O448" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O449" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O450" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O451" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O452" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O453" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O454" s="2" t="str">
-        <f t="shared" ref="O454:O517" si="9">IF(""=H454,"",H454*N454)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O455" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O456" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O456:O519" si="11">IF(""=H456,"",H456*N456)</f>
         <v/>
       </c>
     </row>
     <row r="457" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O457" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O458" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O459" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O460" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O461" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O462" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O463" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O464" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O465" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O466" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O467" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O468" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O469" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O470" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O471" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O472" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O473" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O474" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O475" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O476" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O477" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O478" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O479" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O480" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O481" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O482" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O483" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O484" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O485" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O486" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O487" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O488" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O489" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O490" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O491" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O492" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O493" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O494" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O495" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O496" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O497" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O498" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O499" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O500" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O501" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O502" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O503" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O504" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O505" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O506" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O507" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O508" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O509" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O510" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O511" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O512" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O513" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O514" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O515" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O516" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O517" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O518" s="2" t="str">
-        <f t="shared" ref="O518:O580" si="10">IF(""=H518,"",H518*N518)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O519" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O520" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="O520:O582" si="12">IF(""=H520,"",H520*N520)</f>
         <v/>
       </c>
     </row>
     <row r="521" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O521" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O522" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O523" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O524" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O525" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O526" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O527" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O528" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O529" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O530" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O531" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O532" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O533" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O534" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O535" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O536" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O537" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O538" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O539" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O540" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O541" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O542" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O543" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O544" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O545" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O546" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O547" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O548" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O549" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O550" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O551" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O552" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O553" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O554" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O555" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O556" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O557" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O558" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O559" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O560" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O561" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O562" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O563" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O564" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O565" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O566" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O567" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O568" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O569" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O570" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O571" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O572" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O573" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O574" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O575" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O576" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O577" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O578" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O579" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O580" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O581" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O582" s="2" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F37:F1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  <conditionalFormatting sqref="F39:F1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G23">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
